--- a/medicine/Mort/Cimetière_des_Bruyères_(Sèvres)/Cimetière_des_Bruyères_(Sèvres).xlsx
+++ b/medicine/Mort/Cimetière_des_Bruyères_(Sèvres)/Cimetière_des_Bruyères_(Sèvres).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Bruy%C3%A8res_(S%C3%A8vres)</t>
+          <t>Cimetière_des_Bruyères_(Sèvres)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière des Bruyères est un cimetière communal situé à Sèvres dans les Hauts-de-Seine, fondé en 1876 et ouvert sur 3,7 hectares en 1881. Il comprend quelques chapelles funéraires dont trois classées à l'inventaire[1],[2],[3] et quelques bustes. Il accueille entre autres un certain nombre de tombes d'artistes ou d'employés de la manufacture de Sèvres.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière des Bruyères est un cimetière communal situé à Sèvres dans les Hauts-de-Seine, fondé en 1876 et ouvert sur 3,7 hectares en 1881. Il comprend quelques chapelles funéraires dont trois classées à l'inventaire et quelques bustes. Il accueille entre autres un certain nombre de tombes d'artistes ou d'employés de la manufacture de Sèvres.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Bruy%C3%A8res_(S%C3%A8vres)</t>
+          <t>Cimetière_des_Bruyères_(Sèvres)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Antoine Béranger (1785-1867), peintre sur porcelaine
 Pierre Bertaux (1907-1986), germaniste, Compagnon de la Libération
@@ -528,7 +542,7 @@
 Fernand Pelloutier (1867-1901), socialiste révolutionnaire et anarchiste libertaire
 Denis Désiré Riocreux (1791-1872), peintre sur porcelaine et premier conservateur du musée de Sèvres
 Marcel Rouff (1877-1936), romancier
-Jean-Pierre Vernant (1914-2007), résistant, Compagnon de la Libération et historien[4]
+Jean-Pierre Vernant (1914-2007), résistant, Compagnon de la Libération et historien
 Edmée Hatinguais (1896-1972), directrice de l'École normale supérieure de jeunes filles (1941-1944)</t>
         </is>
       </c>
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_des_Bruy%C3%A8res_(S%C3%A8vres)</t>
+          <t>Cimetière_des_Bruyères_(Sèvres)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
